--- a/media/files/laundry.xlsx
+++ b/media/files/laundry.xlsx
@@ -282,13 +282,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2273300</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>2016125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -326,13 +326,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2133600</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>2000250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -370,13 +370,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2028825</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>2047875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -414,13 +414,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2219325</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>1962150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -458,13 +458,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>412751</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2286000</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1948298</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -502,13 +502,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2238375</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>2127250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -546,13 +546,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>174626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2270125</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>2079626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -590,13 +590,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>174626</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>79376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2206626</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>2111376</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -634,13 +634,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>370417</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>116417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2201334</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>1947334</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -940,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I11"/>
+  <dimension ref="B1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="157.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -958,63 +958,86 @@
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="192" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2"/>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7"/>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="2">
-        <v>350</v>
+        <v>359</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="192" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>2</v>
+    <row r="4" spans="2:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7">
+        <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
@@ -1023,181 +1046,157 @@
         <v>10</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="2">
-        <v>359</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="2">
-        <v>369</v>
+        <v>539</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="174" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
+      <c r="E6" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2">
-        <v>539</v>
+        <v>399</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
-        <v>5</v>
+    <row r="7" spans="2:9" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="7"/>
+      <c r="F7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="9"/>
       <c r="H7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="2">
-        <v>399</v>
+        <v>439</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>6</v>
+    <row r="8" spans="2:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="2">
-        <v>439</v>
+        <v>10</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="5">
+        <v>289</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>27</v>
+      <c r="F9" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I9" s="5">
-        <v>289</v>
+        <v>319</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="10">
-        <v>8</v>
+    <row r="10" spans="2:9" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I10" s="5">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="5">
         <v>159</v>
       </c>
     </row>
